--- a/Resume_Builder_Framework/src/test/resources/TestData/testData.xlsx
+++ b/Resume_Builder_Framework/src/test/resources/TestData/testData.xlsx
@@ -19,7 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>yogita</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,12 +341,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resume_Builder_Framework/src/test/resources/TestData/testData.xlsx
+++ b/Resume_Builder_Framework/src/test/resources/TestData/testData.xlsx
@@ -1,13 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A49CA6A-DBDA-4AED-8BA7-92DDA744AD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="12420" yWindow="2715" windowWidth="21600" windowHeight="11295" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Functional03" sheetId="1" r:id="rId1"/>
+    <sheet name="functional04" sheetId="2" r:id="rId2"/>
+    <sheet name="functional07" sheetId="3" r:id="rId3"/>
+    <sheet name="functional09" sheetId="4" r:id="rId4"/>
+    <sheet name="functional10" sheetId="5" r:id="rId5"/>
+    <sheet name="endtoend01" sheetId="6" r:id="rId6"/>
+    <sheet name="integration05" sheetId="7" r:id="rId7"/>
+    <sheet name="integration04" sheetId="8" r:id="rId8"/>
+    <sheet name="integration03" sheetId="9" r:id="rId9"/>
+    <sheet name="integration02" sheetId="10" r:id="rId10"/>
+    <sheet name="integration01" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,12 +30,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>Suraj</t>
+  </si>
+  <si>
+    <t>Sachin</t>
+  </si>
+  <si>
+    <t>aabbccdeeffgg</t>
+  </si>
+  <si>
+    <t>dfjwfnjjdnvjndv</t>
+  </si>
+  <si>
+    <t>jnviawivnawnvw</t>
+  </si>
+  <si>
+    <t>35461354613</t>
+  </si>
+  <si>
+    <t>47374913748137589</t>
+  </si>
+  <si>
+    <t>2745752285257</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>abhi1234</t>
+  </si>
+  <si>
+    <t>suraj1234</t>
+  </si>
+  <si>
+    <t>sachin1234</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Total Exp In Yrs</t>
+  </si>
+  <si>
+    <t>Total Exp In Months</t>
+  </si>
+  <si>
+    <t>Relevant exp In yrs</t>
+  </si>
+  <si>
+    <t>Relevant Exp In Mnths</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>specialization</t>
+  </si>
+  <si>
+    <t>university</t>
+  </si>
+  <si>
+    <t>front end technology</t>
+  </si>
+  <si>
+    <t>download format</t>
+  </si>
+  <si>
+    <t>Khiste</t>
+  </si>
+  <si>
+    <t>MERN Stack</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>To work on a project with critical responsibilities so that I can learn and grow along with the company and team at the same time increase my domain expertise and problem-solving abilities.</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Criminal Science</t>
+  </si>
+  <si>
+    <t>University of Delhi</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>BE/B.Tech</t>
+  </si>
+  <si>
+    <t>Technologies</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,13 +173,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -53,8 +214,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,15 +502,412 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6DFE87-2A0F-4043-97F6-58BBC0DF8A84}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422137F6-84A3-4D15-8AF8-3C11BF253F70}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90EDA00-F496-4F79-B60D-B87EA042770F}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EED4DF-7C8A-4D44-BCE5-5F91E15AFF04}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67224F4E-8933-4985-9DE6-E4C85B852E65}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16366147-F776-46BE-A304-6E51FB1F3EBD}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD247AB-5BB9-4639-BE6D-C8B7163B01BC}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7445D946-A662-426D-BD6F-3DD747DF730D}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA54D01-7183-429F-9BFA-C0DA78678B6D}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08158E30-1346-4B39-9E1B-E92BD3440B28}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resume_Builder_Framework/src/test/resources/TestData/testData.xlsx
+++ b/Resume_Builder_Framework/src/test/resources/TestData/testData.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PassOut" sheetId="1" r:id="rId1"/>
+    <sheet name="PassOut1" sheetId="2" r:id="rId2"/>
+    <sheet name="Per1" sheetId="3" r:id="rId3"/>
+    <sheet name="Kname" sheetId="4" r:id="rId4"/>
+    <sheet name="Lname" sheetId="5" r:id="rId5"/>
+    <sheet name="FnameSpecial" sheetId="7" r:id="rId6"/>
+    <sheet name="Fname" sheetId="8" r:id="rId7"/>
+    <sheet name="InteFname" sheetId="9" r:id="rId8"/>
+    <sheet name="Techno" sheetId="10" r:id="rId9"/>
+    <sheet name="EntToEnd" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,11 +28,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Sourabh</t>
+  </si>
+  <si>
+    <t>Bhosale</t>
+  </si>
+  <si>
+    <t>@#@</t>
+  </si>
+  <si>
+    <t>PassYear</t>
+  </si>
+  <si>
+    <t>Percen</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>akash</t>
+  </si>
+  <si>
+    <t>Akssh</t>
+  </si>
+  <si>
+    <t>jdhs</t>
+  </si>
+  <si>
+    <t>FrontEndTech</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>passYear</t>
+  </si>
+  <si>
+    <t>percen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> projName</t>
+  </si>
+  <si>
+    <t>teamSize</t>
+  </si>
+  <si>
+    <t>descrip</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>hii</t>
+  </si>
+  <si>
+    <t>Crm</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>djsdff</t>
+  </si>
+  <si>
+    <t>skjdsjd</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -33,12 +133,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -53,8 +159,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -115,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -150,7 +258,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -327,7 +435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -335,14 +443,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resume_Builder_Framework/src/test/resources/TestData/testData.xlsx
+++ b/Resume_Builder_Framework/src/test/resources/TestData/testData.xlsx
@@ -1,13 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE01E57-954F-4E6D-96DE-37510518A63C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="profile" sheetId="3" r:id="rId1"/>
+    <sheet name="chars" sheetId="2" r:id="rId2"/>
+    <sheet name="EndToEnd" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,12 +22,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asha </t>
+  </si>
+  <si>
+    <t>kiran</t>
+  </si>
+  <si>
+    <t>characters</t>
+  </si>
+  <si>
+    <t>ibjbjdbzhbfdshfhsdbj</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>fName</t>
+  </si>
+  <si>
+    <t>lName</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>asha</t>
+  </si>
+  <si>
+    <t>summary is mandatory</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,13 +69,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -53,8 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,15 +394,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD0C407-502C-4C93-AD3A-E34789D3093B}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB6B123-2C87-4934-BE7A-823E0606288D}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A91C1F-E5D1-4BBD-AAB3-4247A0A478EE}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resume_Builder_Framework/src/test/resources/TestData/testData.xlsx
+++ b/Resume_Builder_Framework/src/test/resources/TestData/testData.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="4740" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="kjhuhuh" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,13 +22,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Likhithavgowda</t>
+  </si>
+  <si>
+    <t>rfrhhthm</t>
+  </si>
+  <si>
+    <t>likhitha</t>
+  </si>
+  <si>
+    <t>vjkggvnb</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -53,8 +77,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,12 +363,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:A7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="3" max="3" width="43.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>